--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Efna5-Epha3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Efna5-Epha3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>Epha3</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,16 +537,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.4223226666666666</v>
+        <v>0.3227736666666667</v>
       </c>
       <c r="H2">
-        <v>1.266968</v>
+        <v>0.968321</v>
       </c>
       <c r="I2">
-        <v>0.1676547342089268</v>
+        <v>0.1416094457286952</v>
       </c>
       <c r="J2">
-        <v>0.1676547342089269</v>
+        <v>0.1416094457286952</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -552,28 +555,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>1.106217</v>
+        <v>1.118034</v>
       </c>
       <c r="N2">
-        <v>3.318651</v>
+        <v>3.354102</v>
       </c>
       <c r="O2">
-        <v>0.01813136626967656</v>
+        <v>0.01817106018145251</v>
       </c>
       <c r="P2">
-        <v>0.01813136626967656</v>
+        <v>0.01817106018145251</v>
       </c>
       <c r="Q2">
-        <v>0.4671805133519999</v>
+        <v>0.360871933638</v>
       </c>
       <c r="R2">
-        <v>4.204624620168</v>
+        <v>3.247847402742</v>
       </c>
       <c r="S2">
-        <v>0.003039809392787325</v>
+        <v>0.002573193760598252</v>
       </c>
       <c r="T2">
-        <v>0.003039809392787326</v>
+        <v>0.002573193760598253</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +599,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.4223226666666666</v>
+        <v>0.3227736666666667</v>
       </c>
       <c r="H3">
-        <v>1.266968</v>
+        <v>0.968321</v>
       </c>
       <c r="I3">
-        <v>0.1676547342089268</v>
+        <v>0.1416094457286952</v>
       </c>
       <c r="J3">
-        <v>0.1676547342089269</v>
+        <v>0.1416094457286952</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +623,22 @@
         <v>177.734444</v>
       </c>
       <c r="O3">
-        <v>0.971047664518299</v>
+        <v>0.962887615892719</v>
       </c>
       <c r="P3">
-        <v>0.971047664518299</v>
+        <v>0.9628876158927191</v>
       </c>
       <c r="Q3">
-        <v>25.02042811619911</v>
+        <v>19.12266606094711</v>
       </c>
       <c r="R3">
-        <v>225.183853045792</v>
+        <v>172.103994548524</v>
       </c>
       <c r="S3">
-        <v>0.1628007380990146</v>
+        <v>0.1363539815855927</v>
       </c>
       <c r="T3">
-        <v>0.1628007380990146</v>
+        <v>0.1363539815855927</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +661,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.4223226666666666</v>
+        <v>0.3227736666666667</v>
       </c>
       <c r="H4">
-        <v>1.266968</v>
+        <v>0.968321</v>
       </c>
       <c r="I4">
-        <v>0.1676547342089268</v>
+        <v>0.1416094457286952</v>
       </c>
       <c r="J4">
-        <v>0.1676547342089269</v>
+        <v>0.1416094457286952</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,33 +679,33 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.6602006666666668</v>
+        <v>1.121724666666667</v>
       </c>
       <c r="N4">
-        <v>1.980602</v>
+        <v>3.365174</v>
       </c>
       <c r="O4">
-        <v>0.01082096921202439</v>
+        <v>0.01823104344324033</v>
       </c>
       <c r="P4">
-        <v>0.01082096921202439</v>
+        <v>0.01823104344324033</v>
       </c>
       <c r="Q4">
-        <v>0.2788177060817778</v>
+        <v>0.3620631836504445</v>
       </c>
       <c r="R4">
-        <v>2.509359354736</v>
+        <v>3.258568652854</v>
       </c>
       <c r="S4">
-        <v>0.001814186717124929</v>
+        <v>0.002581687957053025</v>
       </c>
       <c r="T4">
-        <v>0.001814186717124929</v>
+        <v>0.002581687957053025</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>23</v>
@@ -711,55 +714,55 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>1.874986333333333</v>
+        <v>0.3227736666666667</v>
       </c>
       <c r="H5">
-        <v>5.624959</v>
+        <v>0.968321</v>
       </c>
       <c r="I5">
-        <v>0.7443368783435028</v>
+        <v>0.1416094457286952</v>
       </c>
       <c r="J5">
-        <v>0.7443368783435029</v>
+        <v>0.1416094457286952</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>1.106217</v>
+        <v>0.04370233333333334</v>
       </c>
       <c r="N5">
-        <v>3.318651</v>
+        <v>0.131107</v>
       </c>
       <c r="O5">
-        <v>0.01813136626967656</v>
+        <v>0.0007102804825880949</v>
       </c>
       <c r="P5">
-        <v>0.01813136626967656</v>
+        <v>0.0007102804825880949</v>
       </c>
       <c r="Q5">
-        <v>2.074141756701</v>
+        <v>0.01410596237188889</v>
       </c>
       <c r="R5">
-        <v>18.667275810309</v>
+        <v>0.126953661347</v>
       </c>
       <c r="S5">
-        <v>0.01349584456927373</v>
+        <v>0.0001005824254512102</v>
       </c>
       <c r="T5">
-        <v>0.01349584456927374</v>
+        <v>0.0001005824254512102</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,7 +776,7 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -788,40 +791,40 @@
         <v>5.624959</v>
       </c>
       <c r="I6">
-        <v>0.7443368783435028</v>
+        <v>0.8226066833587575</v>
       </c>
       <c r="J6">
-        <v>0.7443368783435029</v>
+        <v>0.8226066833587576</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>59.24481466666666</v>
+        <v>1.118034</v>
       </c>
       <c r="N6">
-        <v>177.734444</v>
+        <v>3.354102</v>
       </c>
       <c r="O6">
-        <v>0.971047664518299</v>
+        <v>0.01817106018145251</v>
       </c>
       <c r="P6">
-        <v>0.971047664518299</v>
+        <v>0.01817106018145251</v>
       </c>
       <c r="Q6">
-        <v>111.0832178208662</v>
+        <v>2.096298470202</v>
       </c>
       <c r="R6">
-        <v>999.748960387796</v>
+        <v>18.866686231818</v>
       </c>
       <c r="S6">
-        <v>0.7227865873302997</v>
+        <v>0.01494763554897703</v>
       </c>
       <c r="T6">
-        <v>0.7227865873302998</v>
+        <v>0.01494763554897704</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,7 +838,7 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -850,10 +853,10 @@
         <v>5.624959</v>
       </c>
       <c r="I7">
-        <v>0.7443368783435028</v>
+        <v>0.8226066833587575</v>
       </c>
       <c r="J7">
-        <v>0.7443368783435029</v>
+        <v>0.8226066833587576</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,33 +865,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.6602006666666668</v>
+        <v>59.24481466666666</v>
       </c>
       <c r="N7">
-        <v>1.980602</v>
+        <v>177.734444</v>
       </c>
       <c r="O7">
-        <v>0.01082096921202439</v>
+        <v>0.962887615892719</v>
       </c>
       <c r="P7">
-        <v>0.01082096921202439</v>
+        <v>0.9628876158927191</v>
       </c>
       <c r="Q7">
-        <v>1.237867227257556</v>
+        <v>111.0832178208662</v>
       </c>
       <c r="R7">
-        <v>11.140805045318</v>
+        <v>999.748960387796</v>
       </c>
       <c r="S7">
-        <v>0.008054446443929386</v>
+        <v>0.7920777881567308</v>
       </c>
       <c r="T7">
-        <v>0.008054446443929386</v>
+        <v>0.792077788156731</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>23</v>
@@ -897,7 +900,7 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -906,51 +909,51 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.2216933333333333</v>
+        <v>1.874986333333333</v>
       </c>
       <c r="H8">
-        <v>0.66508</v>
+        <v>5.624959</v>
       </c>
       <c r="I8">
-        <v>0.08800838744757017</v>
+        <v>0.8226066833587575</v>
       </c>
       <c r="J8">
-        <v>0.08800838744757018</v>
+        <v>0.8226066833587576</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>1.106217</v>
+        <v>1.121724666666667</v>
       </c>
       <c r="N8">
-        <v>3.318651</v>
+        <v>3.365174</v>
       </c>
       <c r="O8">
-        <v>0.01813136626967656</v>
+        <v>0.01823104344324033</v>
       </c>
       <c r="P8">
-        <v>0.01813136626967656</v>
+        <v>0.01823104344324033</v>
       </c>
       <c r="Q8">
-        <v>0.24524093412</v>
+        <v>2.103218419762889</v>
       </c>
       <c r="R8">
-        <v>2.20716840708</v>
+        <v>18.928965777866</v>
       </c>
       <c r="S8">
-        <v>0.0015957123076155</v>
+        <v>0.01499697818101335</v>
       </c>
       <c r="T8">
-        <v>0.0015957123076155</v>
+        <v>0.01499697818101335</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>23</v>
@@ -959,7 +962,7 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -968,46 +971,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.2216933333333333</v>
+        <v>1.874986333333333</v>
       </c>
       <c r="H9">
-        <v>0.66508</v>
+        <v>5.624959</v>
       </c>
       <c r="I9">
-        <v>0.08800838744757017</v>
+        <v>0.8226066833587575</v>
       </c>
       <c r="J9">
-        <v>0.08800838744757018</v>
+        <v>0.8226066833587576</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>59.24481466666666</v>
+        <v>0.04370233333333334</v>
       </c>
       <c r="N9">
-        <v>177.734444</v>
+        <v>0.131107</v>
       </c>
       <c r="O9">
-        <v>0.971047664518299</v>
+        <v>0.0007102804825880949</v>
       </c>
       <c r="P9">
-        <v>0.971047664518299</v>
+        <v>0.0007102804825880949</v>
       </c>
       <c r="Q9">
-        <v>13.13418044616889</v>
+        <v>0.08194127773477779</v>
       </c>
       <c r="R9">
-        <v>118.20762401552</v>
+        <v>0.7374714996130001</v>
       </c>
       <c r="S9">
-        <v>0.08546033908898459</v>
+        <v>0.0005842814720362504</v>
       </c>
       <c r="T9">
-        <v>0.08546033908898461</v>
+        <v>0.0005842814720362506</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,55 +1024,241 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.081563</v>
+      </c>
+      <c r="H10">
+        <v>0.244689</v>
+      </c>
+      <c r="I10">
+        <v>0.03578387091254728</v>
+      </c>
+      <c r="J10">
+        <v>0.03578387091254728</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>1.118034</v>
+      </c>
+      <c r="N10">
+        <v>3.354102</v>
+      </c>
+      <c r="O10">
+        <v>0.01817106018145251</v>
+      </c>
+      <c r="P10">
+        <v>0.01817106018145251</v>
+      </c>
+      <c r="Q10">
+        <v>0.09119020714199999</v>
+      </c>
+      <c r="R10">
+        <v>0.820711864278</v>
+      </c>
+      <c r="S10">
+        <v>0.0006502308718772244</v>
+      </c>
+      <c r="T10">
+        <v>0.0006502308718772246</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
         <v>22</v>
       </c>
-      <c r="E10">
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.081563</v>
+      </c>
+      <c r="H11">
+        <v>0.244689</v>
+      </c>
+      <c r="I11">
+        <v>0.03578387091254728</v>
+      </c>
+      <c r="J11">
+        <v>0.03578387091254728</v>
+      </c>
+      <c r="K11">
         <v>3</v>
       </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0.2216933333333333</v>
-      </c>
-      <c r="H10">
-        <v>0.66508</v>
-      </c>
-      <c r="I10">
-        <v>0.08800838744757017</v>
-      </c>
-      <c r="J10">
-        <v>0.08800838744757018</v>
-      </c>
-      <c r="K10">
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>59.24481466666666</v>
+      </c>
+      <c r="N11">
+        <v>177.734444</v>
+      </c>
+      <c r="O11">
+        <v>0.962887615892719</v>
+      </c>
+      <c r="P11">
+        <v>0.9628876158927191</v>
+      </c>
+      <c r="Q11">
+        <v>4.832184818657333</v>
+      </c>
+      <c r="R11">
+        <v>43.48966336791599</v>
+      </c>
+      <c r="S11">
+        <v>0.03445584615039546</v>
+      </c>
+      <c r="T11">
+        <v>0.03445584615039547</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.081563</v>
+      </c>
+      <c r="H12">
+        <v>0.244689</v>
+      </c>
+      <c r="I12">
+        <v>0.03578387091254728</v>
+      </c>
+      <c r="J12">
+        <v>0.03578387091254728</v>
+      </c>
+      <c r="K12">
         <v>3</v>
       </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>0.6602006666666668</v>
-      </c>
-      <c r="N10">
-        <v>1.980602</v>
-      </c>
-      <c r="O10">
-        <v>0.01082096921202439</v>
-      </c>
-      <c r="P10">
-        <v>0.01082096921202439</v>
-      </c>
-      <c r="Q10">
-        <v>0.1463620864622222</v>
-      </c>
-      <c r="R10">
-        <v>1.31725877816</v>
-      </c>
-      <c r="S10">
-        <v>0.0009523360509700703</v>
-      </c>
-      <c r="T10">
-        <v>0.0009523360509700703</v>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1.121724666666667</v>
+      </c>
+      <c r="N12">
+        <v>3.365174</v>
+      </c>
+      <c r="O12">
+        <v>0.01823104344324033</v>
+      </c>
+      <c r="P12">
+        <v>0.01823104344324033</v>
+      </c>
+      <c r="Q12">
+        <v>0.09149122898733333</v>
+      </c>
+      <c r="R12">
+        <v>0.823421060886</v>
+      </c>
+      <c r="S12">
+        <v>0.0006523773051739534</v>
+      </c>
+      <c r="T12">
+        <v>0.0006523773051739534</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.081563</v>
+      </c>
+      <c r="H13">
+        <v>0.244689</v>
+      </c>
+      <c r="I13">
+        <v>0.03578387091254728</v>
+      </c>
+      <c r="J13">
+        <v>0.03578387091254728</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.04370233333333334</v>
+      </c>
+      <c r="N13">
+        <v>0.131107</v>
+      </c>
+      <c r="O13">
+        <v>0.0007102804825880949</v>
+      </c>
+      <c r="P13">
+        <v>0.0007102804825880949</v>
+      </c>
+      <c r="Q13">
+        <v>0.003564493413666667</v>
+      </c>
+      <c r="R13">
+        <v>0.032080440723</v>
+      </c>
+      <c r="S13">
+        <v>2.541658510063417E-05</v>
+      </c>
+      <c r="T13">
+        <v>2.541658510063417E-05</v>
       </c>
     </row>
   </sheetData>
